--- a/biology/Médecine/1755_en_santé_et_médecine/1755_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1755_en_santé_et_médecine/1755_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1755_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1755 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1755_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Canada
-Louisbourg est victime d’une épidémie de variole, la pire qu’aura connue la Nouvelle-France, comme manifestation locale d’une épidémie globale qui sévit en Amérique du Nord de 1755 à 1782[1].
-Portugal
-1er novembre : tremblement de terre à Lisbonne qui fait 60 000 victimes[2].
-Russie
-25 janvier : fondation de l'Université de Moscou sous l'impulsion de Ivan Chouvalov.</t>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Louisbourg est victime d’une épidémie de variole, la pire qu’aura connue la Nouvelle-France, comme manifestation locale d’une épidémie globale qui sévit en Amérique du Nord de 1755 à 1782.</t>
         </is>
       </c>
     </row>
@@ -528,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1755_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +556,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Publications</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Événements</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1er novembre : tremblement de terre à Lisbonne qui fait 60 000 victimes.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1755_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,13 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Prix</t>
+          <t>Événements</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Médailles de la Royal Society
-Médaille Copley : John Huxham[3].</t>
+          <t>Russie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>25 janvier : fondation de l'Université de Moscou sous l'impulsion de Ivan Chouvalov.</t>
         </is>
       </c>
     </row>
@@ -585,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1755_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,16 +628,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Naissances</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>28 janvier : Samuel Thomas von Sömmering (mort en 1830), médecin, anatomiste, anthropologue, paléontologue et inventeur allemand[4].
-15 février : Jean-Nicolas Corvisart (mort en 1821), médecin français surtout connu pour avoir été le médecin personnel de l'Empereur Napoléon Ier[5].
-11 avril : James Parkinson (mort en 1824), médecin, géologue et paléontologue britannique[6].</t>
-        </is>
-      </c>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -617,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1755_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,13 +656,82 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Médailles de la Royal Society
+Médaille Copley : John Huxham.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1755_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Naissances</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>28 janvier : Samuel Thomas von Sömmering (mort en 1830), médecin, anatomiste, anthropologue, paléontologue et inventeur allemand.
+15 février : Jean-Nicolas Corvisart (mort en 1821), médecin français surtout connu pour avoir été le médecin personnel de l'Empereur Napoléon Ier.
+11 avril : James Parkinson (mort en 1824), médecin, géologue et paléontologue britannique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1755_en_santé_et_médecine</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/1755_en_sant%C3%A9_et_m%C3%A9decine</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>21 mars : Jacques Molin (né en 1666), médecin français, médecin de Louis XIV et de Louis XV.
-17 juillet : Jean-Claude-Adrien Helvétius (né en 1658), médecin français, membre de l'Académie royale des sciences[7].</t>
+17 juillet : Jean-Claude-Adrien Helvétius (né en 1658), médecin français, membre de l'Académie royale des sciences.</t>
         </is>
       </c>
     </row>
